--- a/integrative_results/ASD_fMRI_Genes.xlsx
+++ b/integrative_results/ASD_fMRI_Genes.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="421">
   <si>
     <t xml:space="preserve">Gene</t>
   </si>
@@ -26,31 +26,109 @@
     <t xml:space="preserve">Negative</t>
   </si>
   <si>
+    <t xml:space="preserve">ADAMTS19</t>
+  </si>
+  <si>
     <t xml:space="preserve">AK7</t>
   </si>
   <si>
+    <t xml:space="preserve">AMIGO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANKRD50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANKRD6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARHGEF28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARMC10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARPC5</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARPP19</t>
   </si>
   <si>
+    <t xml:space="preserve">ATP2C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B3GNT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BHMT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRMS1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10orf11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4orf50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CACNA1H</t>
+  </si>
+  <si>
     <t xml:space="preserve">CACNA1S</t>
   </si>
   <si>
+    <t xml:space="preserve">CARD11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARMIL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCBE1</t>
+  </si>
+  <si>
     <t xml:space="preserve">CCDC112</t>
   </si>
   <si>
     <t xml:space="preserve">CCDC90B</t>
   </si>
   <si>
-    <t xml:space="preserve">CERS4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHMP1A</t>
+    <t xml:space="preserve">CDC42SE2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHCHD6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COG5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPEB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPLX3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPNE6</t>
   </si>
   <si>
     <t xml:space="preserve">CPNE7</t>
   </si>
   <si>
-    <t xml:space="preserve">CXorf57</t>
+    <t xml:space="preserve">CXADR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CXXC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DENND2C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DENR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNAJC25-GNG10</t>
   </si>
   <si>
     <t xml:space="preserve">DPYD</t>
@@ -62,18 +140,15 @@
     <t xml:space="preserve">DSEL</t>
   </si>
   <si>
+    <t xml:space="preserve">DYDC2</t>
+  </si>
+  <si>
     <t xml:space="preserve">ENOX1</t>
   </si>
   <si>
-    <t xml:space="preserve">EPN2</t>
-  </si>
-  <si>
     <t xml:space="preserve">ETNK2</t>
   </si>
   <si>
-    <t xml:space="preserve">FABP5</t>
-  </si>
-  <si>
     <t xml:space="preserve">FAM65B</t>
   </si>
   <si>
@@ -98,7 +173,7 @@
     <t xml:space="preserve">GLT8D2</t>
   </si>
   <si>
-    <t xml:space="preserve">GNAO1</t>
+    <t xml:space="preserve">GMFB</t>
   </si>
   <si>
     <t xml:space="preserve">GNB4</t>
@@ -107,21 +182,36 @@
     <t xml:space="preserve">GNG10</t>
   </si>
   <si>
+    <t xml:space="preserve">GPM6A</t>
+  </si>
+  <si>
     <t xml:space="preserve">GPR160</t>
   </si>
   <si>
+    <t xml:space="preserve">GRIN3A</t>
+  </si>
+  <si>
     <t xml:space="preserve">GRM3</t>
   </si>
   <si>
+    <t xml:space="preserve">GRM8</t>
+  </si>
+  <si>
     <t xml:space="preserve">HINT3</t>
   </si>
   <si>
-    <t xml:space="preserve">IL1RAPL2</t>
+    <t xml:space="preserve">HRASLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSBP1</t>
   </si>
   <si>
     <t xml:space="preserve">ISOC1</t>
   </si>
   <si>
+    <t xml:space="preserve">KCNH7</t>
+  </si>
+  <si>
     <t xml:space="preserve">KCNK13</t>
   </si>
   <si>
@@ -131,33 +221,48 @@
     <t xml:space="preserve">L3MBTL4</t>
   </si>
   <si>
-    <t xml:space="preserve">LAMA1</t>
-  </si>
-  <si>
     <t xml:space="preserve">LINC01420</t>
   </si>
   <si>
+    <t xml:space="preserve">LMO3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRP1B</t>
+  </si>
+  <si>
     <t xml:space="preserve">LRRC3</t>
   </si>
   <si>
-    <t xml:space="preserve">MAPK3</t>
+    <t xml:space="preserve">LRRC7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAPK15</t>
   </si>
   <si>
     <t xml:space="preserve">MARCKS</t>
   </si>
   <si>
+    <t xml:space="preserve">MEPE</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFSD14A</t>
   </si>
   <si>
     <t xml:space="preserve">MMD</t>
   </si>
   <si>
+    <t xml:space="preserve">MRPL23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSANTD3-TMEFF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYO16</t>
+  </si>
+  <si>
     <t xml:space="preserve">NCAM2</t>
   </si>
   <si>
-    <t xml:space="preserve">NCAN</t>
-  </si>
-  <si>
     <t xml:space="preserve">NELFE</t>
   </si>
   <si>
@@ -179,6 +284,24 @@
     <t xml:space="preserve">NRAS</t>
   </si>
   <si>
+    <t xml:space="preserve">NTSR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUDT11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PACRG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCDH10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCDH15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCDH20</t>
+  </si>
+  <si>
     <t xml:space="preserve">PCED1B</t>
   </si>
   <si>
@@ -188,33 +311,57 @@
     <t xml:space="preserve">PDGFC</t>
   </si>
   <si>
-    <t xml:space="preserve">PEA15</t>
+    <t xml:space="preserve">PDGFRA</t>
   </si>
   <si>
     <t xml:space="preserve">PGRMC1</t>
   </si>
   <si>
-    <t xml:space="preserve">PHACTR3</t>
+    <t xml:space="preserve">PI4K2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLA2G12A</t>
   </si>
   <si>
     <t xml:space="preserve">PLPPR3</t>
   </si>
   <si>
+    <t xml:space="preserve">PPP3R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPP4R4</t>
+  </si>
+  <si>
     <t xml:space="preserve">PRMT2</t>
   </si>
   <si>
     <t xml:space="preserve">PROKR2</t>
   </si>
   <si>
+    <t xml:space="preserve">PRR29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSENEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTGER3</t>
+  </si>
+  <si>
     <t xml:space="preserve">PTPRA</t>
   </si>
   <si>
     <t xml:space="preserve">RAB40B</t>
   </si>
   <si>
+    <t xml:space="preserve">RAP2B</t>
+  </si>
+  <si>
     <t xml:space="preserve">RASAL1</t>
   </si>
   <si>
+    <t xml:space="preserve">RCN2</t>
+  </si>
+  <si>
     <t xml:space="preserve">RFK</t>
   </si>
   <si>
@@ -230,31 +377,43 @@
     <t xml:space="preserve">SCD5</t>
   </si>
   <si>
+    <t xml:space="preserve">SCFD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCN7A</t>
+  </si>
+  <si>
     <t xml:space="preserve">SCN9A</t>
   </si>
   <si>
-    <t xml:space="preserve">SDC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDK2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SH3RF1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLC39A6</t>
+    <t xml:space="preserve">SLC39A10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNCA</t>
   </si>
   <si>
     <t xml:space="preserve">SOX11</t>
   </si>
   <si>
+    <t xml:space="preserve">SOX5</t>
+  </si>
+  <si>
     <t xml:space="preserve">SQLE</t>
   </si>
   <si>
+    <t xml:space="preserve">SSTR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STUM</t>
+  </si>
+  <si>
     <t xml:space="preserve">STX12</t>
   </si>
   <si>
-    <t xml:space="preserve">SYNJ2BP</t>
+    <t xml:space="preserve">SUB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUMO3</t>
   </si>
   <si>
     <t xml:space="preserve">SYT17</t>
@@ -266,49 +425,106 @@
     <t xml:space="preserve">TBCA</t>
   </si>
   <si>
-    <t xml:space="preserve">TIMP2</t>
+    <t xml:space="preserve">TERF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEX15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TINCR</t>
   </si>
   <si>
     <t xml:space="preserve">TKFC</t>
   </si>
   <si>
+    <t xml:space="preserve">TLK1</t>
+  </si>
+  <si>
     <t xml:space="preserve">TMEFF1</t>
   </si>
   <si>
     <t xml:space="preserve">TMEFF2</t>
   </si>
   <si>
+    <t xml:space="preserve">TMEM263</t>
+  </si>
+  <si>
     <t xml:space="preserve">TMSB10</t>
   </si>
   <si>
+    <t xml:space="preserve">TNNT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOX3</t>
+  </si>
+  <si>
     <t xml:space="preserve">TPM3</t>
   </si>
   <si>
     <t xml:space="preserve">TRABD2A</t>
   </si>
   <si>
+    <t xml:space="preserve">TRAPPC6A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTC6</t>
+  </si>
+  <si>
     <t xml:space="preserve">TUBA1A</t>
   </si>
   <si>
-    <t xml:space="preserve">TUBB</t>
-  </si>
-  <si>
     <t xml:space="preserve">TUBB2A</t>
   </si>
   <si>
     <t xml:space="preserve">TUBB2B</t>
   </si>
   <si>
+    <t xml:space="preserve">TXN</t>
+  </si>
+  <si>
     <t xml:space="preserve">UBE2D2</t>
   </si>
   <si>
+    <t xml:space="preserve">USP12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USP14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAT1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VHL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSTM2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDR17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDR31</t>
+  </si>
+  <si>
     <t xml:space="preserve">WNT16</t>
   </si>
   <si>
-    <t xml:space="preserve">WRB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABCB9</t>
+    <t xml:space="preserve">ZCCHC12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZCCHC17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZDHHC12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZNF626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZNF69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AARS</t>
   </si>
   <si>
     <t xml:space="preserve">Positive</t>
@@ -317,6 +533,9 @@
     <t xml:space="preserve">ABCF2</t>
   </si>
   <si>
+    <t xml:space="preserve">ABT1</t>
+  </si>
+  <si>
     <t xml:space="preserve">ACAN</t>
   </si>
   <si>
@@ -326,12 +545,18 @@
     <t xml:space="preserve">ACVR1C</t>
   </si>
   <si>
-    <t xml:space="preserve">ADAMTS5</t>
+    <t xml:space="preserve">ADAM9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADAMTSL1</t>
   </si>
   <si>
     <t xml:space="preserve">ADCY9</t>
   </si>
   <si>
+    <t xml:space="preserve">AFTPH</t>
+  </si>
+  <si>
     <t xml:space="preserve">ALDH1A3</t>
   </si>
   <si>
@@ -341,34 +566,22 @@
     <t xml:space="preserve">ANKH</t>
   </si>
   <si>
-    <t xml:space="preserve">ANKRD62</t>
-  </si>
-  <si>
     <t xml:space="preserve">ANKRD9</t>
   </si>
   <si>
-    <t xml:space="preserve">AP5M1</t>
+    <t xml:space="preserve">ANKS6</t>
   </si>
   <si>
     <t xml:space="preserve">ARG2</t>
   </si>
   <si>
-    <t xml:space="preserve">ARHGEF10L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARHGEF11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARL5B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARMC9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARNTL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATP5A1</t>
+    <t xml:space="preserve">ARHGAP39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARID5B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATG16L1</t>
   </si>
   <si>
     <t xml:space="preserve">AVPI1</t>
@@ -386,15 +599,6 @@
     <t xml:space="preserve">BMP4</t>
   </si>
   <si>
-    <t xml:space="preserve">BMS1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C16orf52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C17orf107</t>
-  </si>
-  <si>
     <t xml:space="preserve">C18orf25</t>
   </si>
   <si>
@@ -404,55 +608,49 @@
     <t xml:space="preserve">C3orf18</t>
   </si>
   <si>
+    <t xml:space="preserve">C4orf33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C6orf47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9orf72</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAMK2G</t>
   </si>
   <si>
-    <t xml:space="preserve">CAMTA1</t>
+    <t xml:space="preserve">CARS</t>
   </si>
   <si>
     <t xml:space="preserve">CCDC136</t>
   </si>
   <si>
-    <t xml:space="preserve">CCDC39</t>
-  </si>
-  <si>
     <t xml:space="preserve">CCDC40</t>
   </si>
   <si>
+    <t xml:space="preserve">CCR10</t>
+  </si>
+  <si>
     <t xml:space="preserve">CD274</t>
   </si>
   <si>
-    <t xml:space="preserve">CDADC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDS1</t>
+    <t xml:space="preserve">CDON</t>
   </si>
   <si>
     <t xml:space="preserve">CERK</t>
   </si>
   <si>
-    <t xml:space="preserve">CFC1</t>
-  </si>
-  <si>
     <t xml:space="preserve">CLEC16A</t>
   </si>
   <si>
-    <t xml:space="preserve">CLUAP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNOT6L</t>
+    <t xml:space="preserve">CNBD2</t>
   </si>
   <si>
     <t xml:space="preserve">COL5A1</t>
   </si>
   <si>
-    <t xml:space="preserve">CREBRF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSDC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTXN2</t>
+    <t xml:space="preserve">CRHR2</t>
   </si>
   <si>
     <t xml:space="preserve">CYB5R4</t>
@@ -461,16 +659,13 @@
     <t xml:space="preserve">DCAF1</t>
   </si>
   <si>
-    <t xml:space="preserve">DCBLD2</t>
-  </si>
-  <si>
     <t xml:space="preserve">DCLRE1A</t>
   </si>
   <si>
     <t xml:space="preserve">DCP1A</t>
   </si>
   <si>
-    <t xml:space="preserve">DENND1B</t>
+    <t xml:space="preserve">DCPS</t>
   </si>
   <si>
     <t xml:space="preserve">DEXI</t>
@@ -485,9 +680,6 @@
     <t xml:space="preserve">DNAJC16</t>
   </si>
   <si>
-    <t xml:space="preserve">DNAJC4</t>
-  </si>
-  <si>
     <t xml:space="preserve">DTX3</t>
   </si>
   <si>
@@ -497,31 +689,31 @@
     <t xml:space="preserve">EMILIN3</t>
   </si>
   <si>
-    <t xml:space="preserve">ENTPD4</t>
-  </si>
-  <si>
     <t xml:space="preserve">EPRS</t>
   </si>
   <si>
+    <t xml:space="preserve">ERRFI1</t>
+  </si>
+  <si>
     <t xml:space="preserve">ESRRA</t>
   </si>
   <si>
     <t xml:space="preserve">ESRRG</t>
   </si>
   <si>
-    <t xml:space="preserve">EXTL2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAM110A</t>
+    <t xml:space="preserve">ETV6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAF1</t>
   </si>
   <si>
     <t xml:space="preserve">FAM156B</t>
   </si>
   <si>
-    <t xml:space="preserve">FAM208B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAM216A</t>
+    <t xml:space="preserve">FAM43A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAM83D</t>
   </si>
   <si>
     <t xml:space="preserve">FASTKD5</t>
@@ -530,75 +722,63 @@
     <t xml:space="preserve">FBLN7</t>
   </si>
   <si>
+    <t xml:space="preserve">FBXO31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBXO42</t>
+  </si>
+  <si>
     <t xml:space="preserve">FES</t>
   </si>
   <si>
-    <t xml:space="preserve">FGF9</t>
-  </si>
-  <si>
     <t xml:space="preserve">FHDC1</t>
   </si>
   <si>
     <t xml:space="preserve">FMN1</t>
   </si>
   <si>
-    <t xml:space="preserve">FOCAD</t>
+    <t xml:space="preserve">FNDC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOXO3</t>
   </si>
   <si>
     <t xml:space="preserve">FRAT1</t>
   </si>
   <si>
-    <t xml:space="preserve">GCHFR</t>
-  </si>
-  <si>
     <t xml:space="preserve">GFER</t>
   </si>
   <si>
-    <t xml:space="preserve">GFM1</t>
-  </si>
-  <si>
     <t xml:space="preserve">GLCCI1</t>
   </si>
   <si>
-    <t xml:space="preserve">GLTSCR1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GNL1</t>
+    <t xml:space="preserve">GLIPR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOSR1</t>
   </si>
   <si>
     <t xml:space="preserve">GPR161</t>
   </si>
   <si>
-    <t xml:space="preserve">GRAMD1B</t>
-  </si>
-  <si>
     <t xml:space="preserve">GREB1</t>
   </si>
   <si>
-    <t xml:space="preserve">HAPLN4</t>
-  </si>
-  <si>
     <t xml:space="preserve">HDAC4</t>
   </si>
   <si>
+    <t xml:space="preserve">HERPUD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HINFP</t>
+  </si>
+  <si>
     <t xml:space="preserve">HIST1H3A</t>
   </si>
   <si>
     <t xml:space="preserve">HIST1H3D</t>
   </si>
   <si>
-    <t xml:space="preserve">HS3ST1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSFX1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICMT</t>
-  </si>
-  <si>
     <t xml:space="preserve">IER5</t>
   </si>
   <si>
@@ -608,36 +788,36 @@
     <t xml:space="preserve">IFNLR1</t>
   </si>
   <si>
+    <t xml:space="preserve">IL15RA</t>
+  </si>
+  <si>
     <t xml:space="preserve">INPP5A</t>
   </si>
   <si>
+    <t xml:space="preserve">IPO7</t>
+  </si>
+  <si>
     <t xml:space="preserve">IRS1</t>
   </si>
   <si>
-    <t xml:space="preserve">ITPRIPL1</t>
-  </si>
-  <si>
     <t xml:space="preserve">JADE1</t>
   </si>
   <si>
+    <t xml:space="preserve">JAK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JARID2</t>
+  </si>
+  <si>
     <t xml:space="preserve">JDP2</t>
   </si>
   <si>
     <t xml:space="preserve">JMJD6</t>
   </si>
   <si>
-    <t xml:space="preserve">KCNA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KCNA2</t>
-  </si>
-  <si>
     <t xml:space="preserve">KCNAB3</t>
   </si>
   <si>
-    <t xml:space="preserve">KCNC1</t>
-  </si>
-  <si>
     <t xml:space="preserve">KCNC3</t>
   </si>
   <si>
@@ -647,30 +827,18 @@
     <t xml:space="preserve">KCNT1</t>
   </si>
   <si>
-    <t xml:space="preserve">KLC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KLF12</t>
+    <t xml:space="preserve">KDM5C</t>
   </si>
   <si>
     <t xml:space="preserve">KLF9</t>
   </si>
   <si>
-    <t xml:space="preserve">KREMEN1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KY</t>
+    <t xml:space="preserve">KLHL17</t>
   </si>
   <si>
     <t xml:space="preserve">LACE1</t>
   </si>
   <si>
-    <t xml:space="preserve">LRRC4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LRRC43</t>
-  </si>
-  <si>
     <t xml:space="preserve">LRRC59</t>
   </si>
   <si>
@@ -683,52 +851,40 @@
     <t xml:space="preserve">MAFB</t>
   </si>
   <si>
-    <t xml:space="preserve">MAP3K13</t>
+    <t xml:space="preserve">MAGI3</t>
   </si>
   <si>
     <t xml:space="preserve">MAP4K2</t>
   </si>
   <si>
-    <t xml:space="preserve">MFSD3</t>
+    <t xml:space="preserve">MFHAS1</t>
   </si>
   <si>
     <t xml:space="preserve">MGST2</t>
   </si>
   <si>
-    <t xml:space="preserve">MID2</t>
-  </si>
-  <si>
     <t xml:space="preserve">MIOS</t>
   </si>
   <si>
     <t xml:space="preserve">MPP1</t>
   </si>
   <si>
-    <t xml:space="preserve">MPZL3</t>
-  </si>
-  <si>
     <t xml:space="preserve">MRGBP</t>
   </si>
   <si>
-    <t xml:space="preserve">MRPL35</t>
+    <t xml:space="preserve">MSL2</t>
   </si>
   <si>
     <t xml:space="preserve">MTCL1</t>
   </si>
   <si>
-    <t xml:space="preserve">MYOZ3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAAA</t>
+    <t xml:space="preserve">MXD1</t>
   </si>
   <si>
     <t xml:space="preserve">NCOA3</t>
   </si>
   <si>
-    <t xml:space="preserve">NCR3LG1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEIL1</t>
+    <t xml:space="preserve">NEXN</t>
   </si>
   <si>
     <t xml:space="preserve">NKX3-1</t>
@@ -746,16 +902,19 @@
     <t xml:space="preserve">NR3C2</t>
   </si>
   <si>
-    <t xml:space="preserve">NSG1</t>
+    <t xml:space="preserve">NRBP1</t>
   </si>
   <si>
     <t xml:space="preserve">NT5M</t>
   </si>
   <si>
+    <t xml:space="preserve">NUP153</t>
+  </si>
+  <si>
     <t xml:space="preserve">OSBPL6</t>
   </si>
   <si>
-    <t xml:space="preserve">P4HTM</t>
+    <t xml:space="preserve">OXA1L</t>
   </si>
   <si>
     <t xml:space="preserve">PANX2</t>
@@ -764,16 +923,16 @@
     <t xml:space="preserve">PAPD7</t>
   </si>
   <si>
-    <t xml:space="preserve">PARP3</t>
-  </si>
-  <si>
     <t xml:space="preserve">PDIK1L</t>
   </si>
   <si>
     <t xml:space="preserve">PELI3</t>
   </si>
   <si>
-    <t xml:space="preserve">PHOSPHO1</t>
+    <t xml:space="preserve">PHF8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHKG2</t>
   </si>
   <si>
     <t xml:space="preserve">PIK3CA</t>
@@ -782,22 +941,16 @@
     <t xml:space="preserve">PIK3R3</t>
   </si>
   <si>
+    <t xml:space="preserve">PIM1</t>
+  </si>
+  <si>
     <t xml:space="preserve">PKD1</t>
   </si>
   <si>
-    <t xml:space="preserve">PLEKHM2</t>
-  </si>
-  <si>
     <t xml:space="preserve">PLXDC1</t>
   </si>
   <si>
-    <t xml:space="preserve">POLB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPARGC1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPT1</t>
+    <t xml:space="preserve">PPL</t>
   </si>
   <si>
     <t xml:space="preserve">PPTC7</t>
@@ -815,40 +968,34 @@
     <t xml:space="preserve">RAB37</t>
   </si>
   <si>
-    <t xml:space="preserve">RANBP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBBP4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBBP8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RELT</t>
+    <t xml:space="preserve">RCN3</t>
   </si>
   <si>
     <t xml:space="preserve">RET</t>
   </si>
   <si>
-    <t xml:space="preserve">RFX5</t>
-  </si>
-  <si>
     <t xml:space="preserve">RGPD4</t>
   </si>
   <si>
-    <t xml:space="preserve">RMDN2</t>
-  </si>
-  <si>
     <t xml:space="preserve">RNF111</t>
   </si>
   <si>
+    <t xml:space="preserve">RNF133</t>
+  </si>
+  <si>
     <t xml:space="preserve">RNF168</t>
   </si>
   <si>
+    <t xml:space="preserve">RNF4</t>
+  </si>
+  <si>
     <t xml:space="preserve">RORA</t>
   </si>
   <si>
-    <t xml:space="preserve">SCN1A</t>
+    <t xml:space="preserve">RP11-298A10.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPA1</t>
   </si>
   <si>
     <t xml:space="preserve">SCN1B</t>
@@ -860,19 +1007,25 @@
     <t xml:space="preserve">SCRT2</t>
   </si>
   <si>
+    <t xml:space="preserve">SEMA6D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMA7A</t>
+  </si>
+  <si>
     <t xml:space="preserve">SESN2</t>
   </si>
   <si>
+    <t xml:space="preserve">SETD7</t>
+  </si>
+  <si>
     <t xml:space="preserve">SHD</t>
   </si>
   <si>
-    <t xml:space="preserve">SIRT4</t>
-  </si>
-  <si>
     <t xml:space="preserve">SIX4</t>
   </si>
   <si>
-    <t xml:space="preserve">SLC10A5</t>
+    <t xml:space="preserve">SKIDA1</t>
   </si>
   <si>
     <t xml:space="preserve">SLC19A2</t>
@@ -887,24 +1040,30 @@
     <t xml:space="preserve">SLC25A5</t>
   </si>
   <si>
-    <t xml:space="preserve">SLC35B4</t>
+    <t xml:space="preserve">SLC35A4</t>
   </si>
   <si>
     <t xml:space="preserve">SLC38A1</t>
   </si>
   <si>
-    <t xml:space="preserve">SLC38A11</t>
+    <t xml:space="preserve">SLC38A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC39A14</t>
   </si>
   <si>
     <t xml:space="preserve">SLC45A4</t>
   </si>
   <si>
-    <t xml:space="preserve">SLC7A6</t>
+    <t xml:space="preserve">SLC4A8</t>
   </si>
   <si>
     <t xml:space="preserve">SMCR8</t>
   </si>
   <si>
+    <t xml:space="preserve">SMG9</t>
+  </si>
+  <si>
     <t xml:space="preserve">SNRK</t>
   </si>
   <si>
@@ -914,49 +1073,52 @@
     <t xml:space="preserve">SPAG1</t>
   </si>
   <si>
-    <t xml:space="preserve">SPIRE1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPTSSB</t>
+    <t xml:space="preserve">SRPRA</t>
   </si>
   <si>
     <t xml:space="preserve">SRXN1</t>
   </si>
   <si>
+    <t xml:space="preserve">STAC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAMBPL1</t>
+  </si>
+  <si>
     <t xml:space="preserve">STARD5</t>
   </si>
   <si>
+    <t xml:space="preserve">STAT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STC2</t>
+  </si>
+  <si>
     <t xml:space="preserve">STK11</t>
   </si>
   <si>
     <t xml:space="preserve">STK26</t>
   </si>
   <si>
+    <t xml:space="preserve">STK38L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRADA</t>
+  </si>
+  <si>
     <t xml:space="preserve">STS</t>
   </si>
   <si>
-    <t xml:space="preserve">SUPV3L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SYCP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SYT12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SYT2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TACR1</t>
+    <t xml:space="preserve">STX5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUPT16H</t>
   </si>
   <si>
     <t xml:space="preserve">TADA2B</t>
   </si>
   <si>
-    <t xml:space="preserve">TBC1D16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TBC1D4</t>
+    <t xml:space="preserve">TBC1D8</t>
   </si>
   <si>
     <t xml:space="preserve">TCAF2</t>
@@ -965,37 +1127,49 @@
     <t xml:space="preserve">TDP2</t>
   </si>
   <si>
+    <t xml:space="preserve">TICAM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIGD3</t>
+  </si>
+  <si>
     <t xml:space="preserve">TIGD5</t>
   </si>
   <si>
+    <t xml:space="preserve">TLE2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMEM109</t>
+  </si>
+  <si>
     <t xml:space="preserve">TMEM132E</t>
   </si>
   <si>
     <t xml:space="preserve">TMEM200B</t>
   </si>
   <si>
-    <t xml:space="preserve">TMEM25</t>
+    <t xml:space="preserve">TMEM55A</t>
   </si>
   <si>
     <t xml:space="preserve">TMEM81</t>
   </si>
   <si>
+    <t xml:space="preserve">TMOD1</t>
+  </si>
+  <si>
     <t xml:space="preserve">TMPPE</t>
   </si>
   <si>
     <t xml:space="preserve">TNIP1</t>
   </si>
   <si>
-    <t xml:space="preserve">TNK1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRIM7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRPC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRPM3</t>
+    <t xml:space="preserve">TRAF7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRIM25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSC22D3</t>
   </si>
   <si>
     <t xml:space="preserve">TTC39B</t>
@@ -1004,7 +1178,7 @@
     <t xml:space="preserve">TTI1</t>
   </si>
   <si>
-    <t xml:space="preserve">TUBA8</t>
+    <t xml:space="preserve">UBAP1</t>
   </si>
   <si>
     <t xml:space="preserve">UBE3B</t>
@@ -1022,9 +1196,6 @@
     <t xml:space="preserve">USF2</t>
   </si>
   <si>
-    <t xml:space="preserve">USP15</t>
-  </si>
-  <si>
     <t xml:space="preserve">USP28</t>
   </si>
   <si>
@@ -1034,10 +1205,7 @@
     <t xml:space="preserve">VAMP1</t>
   </si>
   <si>
-    <t xml:space="preserve">WDR76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WNT3</t>
+    <t xml:space="preserve">WDR33</t>
   </si>
   <si>
     <t xml:space="preserve">XKR6</t>
@@ -1046,37 +1214,40 @@
     <t xml:space="preserve">ZADH2</t>
   </si>
   <si>
-    <t xml:space="preserve">ZBTB11</t>
-  </si>
-  <si>
     <t xml:space="preserve">ZBTB16</t>
   </si>
   <si>
+    <t xml:space="preserve">ZBTB21</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZBTB34</t>
   </si>
   <si>
     <t xml:space="preserve">ZBTB38</t>
   </si>
   <si>
+    <t xml:space="preserve">ZBTB43</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZC3H7B</t>
   </si>
   <si>
-    <t xml:space="preserve">ZFAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZKSCAN4</t>
+    <t xml:space="preserve">ZDHHC5</t>
   </si>
   <si>
     <t xml:space="preserve">ZKSCAN5</t>
   </si>
   <si>
+    <t xml:space="preserve">ZNF304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZNF324</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZNF398</t>
   </si>
   <si>
-    <t xml:space="preserve">ZNF41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZNF487</t>
+    <t xml:space="preserve">ZNF574</t>
   </si>
   <si>
     <t xml:space="preserve">ZNF597</t>
@@ -1086,6 +1257,15 @@
   </si>
   <si>
     <t xml:space="preserve">ZNF740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZNF805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZNFX1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZSWIM1</t>
   </si>
   <si>
     <t xml:space="preserve">ZYX</t>
@@ -1100,7 +1280,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="2">
     <font>
@@ -1457,12 +1637,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -2237,583 +2417,583 @@
         <v>98</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="170">
@@ -2821,7 +3001,7 @@
         <v>172</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="171">
@@ -2829,7 +3009,7 @@
         <v>173</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="172">
@@ -2837,7 +3017,7 @@
         <v>174</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="173">
@@ -2845,7 +3025,7 @@
         <v>175</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="174">
@@ -2853,7 +3033,7 @@
         <v>176</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="175">
@@ -2861,7 +3041,7 @@
         <v>177</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="176">
@@ -2869,7 +3049,7 @@
         <v>178</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="177">
@@ -2877,7 +3057,7 @@
         <v>179</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="178">
@@ -2885,7 +3065,7 @@
         <v>180</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="179">
@@ -2893,7 +3073,7 @@
         <v>181</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="180">
@@ -2901,7 +3081,7 @@
         <v>182</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="181">
@@ -2909,7 +3089,7 @@
         <v>183</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="182">
@@ -2917,7 +3097,7 @@
         <v>184</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="183">
@@ -2925,7 +3105,7 @@
         <v>185</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="184">
@@ -2933,7 +3113,7 @@
         <v>186</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="185">
@@ -2941,7 +3121,7 @@
         <v>187</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="186">
@@ -2949,7 +3129,7 @@
         <v>188</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="187">
@@ -2957,7 +3137,7 @@
         <v>189</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="188">
@@ -2965,7 +3145,7 @@
         <v>190</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="189">
@@ -2973,7 +3153,7 @@
         <v>191</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="190">
@@ -2981,7 +3161,7 @@
         <v>192</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="191">
@@ -2989,7 +3169,7 @@
         <v>193</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="192">
@@ -2997,7 +3177,7 @@
         <v>194</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="193">
@@ -3005,7 +3185,7 @@
         <v>195</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="194">
@@ -3013,7 +3193,7 @@
         <v>196</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="195">
@@ -3021,7 +3201,7 @@
         <v>197</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="196">
@@ -3029,7 +3209,7 @@
         <v>198</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="197">
@@ -3037,7 +3217,7 @@
         <v>199</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="198">
@@ -3045,7 +3225,7 @@
         <v>200</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="199">
@@ -3053,7 +3233,7 @@
         <v>201</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="200">
@@ -3061,7 +3241,7 @@
         <v>202</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="201">
@@ -3069,7 +3249,7 @@
         <v>203</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="202">
@@ -3077,7 +3257,7 @@
         <v>204</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="203">
@@ -3085,7 +3265,7 @@
         <v>205</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="204">
@@ -3093,7 +3273,7 @@
         <v>206</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="205">
@@ -3101,7 +3281,7 @@
         <v>207</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="206">
@@ -3109,7 +3289,7 @@
         <v>208</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="207">
@@ -3117,7 +3297,7 @@
         <v>209</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="208">
@@ -3125,7 +3305,7 @@
         <v>210</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="209">
@@ -3133,7 +3313,7 @@
         <v>211</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="210">
@@ -3141,7 +3321,7 @@
         <v>212</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="211">
@@ -3149,7 +3329,7 @@
         <v>213</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="212">
@@ -3157,7 +3337,7 @@
         <v>214</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="213">
@@ -3165,7 +3345,7 @@
         <v>215</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="214">
@@ -3173,7 +3353,7 @@
         <v>216</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="215">
@@ -3181,7 +3361,7 @@
         <v>217</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="216">
@@ -3189,7 +3369,7 @@
         <v>218</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="217">
@@ -3197,7 +3377,7 @@
         <v>219</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="218">
@@ -3205,7 +3385,7 @@
         <v>220</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="219">
@@ -3213,7 +3393,7 @@
         <v>221</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="220">
@@ -3221,7 +3401,7 @@
         <v>222</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="221">
@@ -3229,7 +3409,7 @@
         <v>223</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="222">
@@ -3237,7 +3417,7 @@
         <v>224</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="223">
@@ -3245,7 +3425,7 @@
         <v>225</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="224">
@@ -3253,7 +3433,7 @@
         <v>226</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="225">
@@ -3261,7 +3441,7 @@
         <v>227</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="226">
@@ -3269,7 +3449,7 @@
         <v>228</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="227">
@@ -3277,7 +3457,7 @@
         <v>229</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="228">
@@ -3285,7 +3465,7 @@
         <v>230</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="229">
@@ -3293,7 +3473,7 @@
         <v>231</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="230">
@@ -3301,7 +3481,7 @@
         <v>232</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="231">
@@ -3309,7 +3489,7 @@
         <v>233</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="232">
@@ -3317,7 +3497,7 @@
         <v>234</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="233">
@@ -3325,7 +3505,7 @@
         <v>235</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="234">
@@ -3333,7 +3513,7 @@
         <v>236</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="235">
@@ -3341,7 +3521,7 @@
         <v>237</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="236">
@@ -3349,7 +3529,7 @@
         <v>238</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="237">
@@ -3357,7 +3537,7 @@
         <v>239</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="238">
@@ -3365,7 +3545,7 @@
         <v>240</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="239">
@@ -3373,7 +3553,7 @@
         <v>241</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="240">
@@ -3381,7 +3561,7 @@
         <v>242</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="241">
@@ -3389,7 +3569,7 @@
         <v>243</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="242">
@@ -3397,7 +3577,7 @@
         <v>244</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="243">
@@ -3405,7 +3585,7 @@
         <v>245</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="244">
@@ -3413,7 +3593,7 @@
         <v>246</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="245">
@@ -3421,7 +3601,7 @@
         <v>247</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="246">
@@ -3429,7 +3609,7 @@
         <v>248</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="247">
@@ -3437,7 +3617,7 @@
         <v>249</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="248">
@@ -3445,7 +3625,7 @@
         <v>250</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="249">
@@ -3453,7 +3633,7 @@
         <v>251</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="250">
@@ -3461,7 +3641,7 @@
         <v>252</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="251">
@@ -3469,7 +3649,7 @@
         <v>253</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="252">
@@ -3477,7 +3657,7 @@
         <v>254</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="253">
@@ -3485,7 +3665,7 @@
         <v>255</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="254">
@@ -3493,7 +3673,7 @@
         <v>256</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="255">
@@ -3501,7 +3681,7 @@
         <v>257</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="256">
@@ -3509,7 +3689,7 @@
         <v>258</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="257">
@@ -3517,7 +3697,7 @@
         <v>259</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="258">
@@ -3525,7 +3705,7 @@
         <v>260</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="259">
@@ -3533,7 +3713,7 @@
         <v>261</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="260">
@@ -3541,7 +3721,7 @@
         <v>262</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="261">
@@ -3549,7 +3729,7 @@
         <v>263</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="262">
@@ -3557,7 +3737,7 @@
         <v>264</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="263">
@@ -3565,7 +3745,7 @@
         <v>265</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="264">
@@ -3573,7 +3753,7 @@
         <v>266</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="265">
@@ -3581,7 +3761,7 @@
         <v>267</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="266">
@@ -3589,7 +3769,7 @@
         <v>268</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="267">
@@ -3597,7 +3777,7 @@
         <v>269</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="268">
@@ -3605,7 +3785,7 @@
         <v>270</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="269">
@@ -3613,7 +3793,7 @@
         <v>271</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="270">
@@ -3621,7 +3801,7 @@
         <v>272</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="271">
@@ -3629,7 +3809,7 @@
         <v>273</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="272">
@@ -3637,7 +3817,7 @@
         <v>274</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="273">
@@ -3645,7 +3825,7 @@
         <v>275</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="274">
@@ -3653,7 +3833,7 @@
         <v>276</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="275">
@@ -3661,7 +3841,7 @@
         <v>277</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="276">
@@ -3669,7 +3849,7 @@
         <v>278</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="277">
@@ -3677,7 +3857,7 @@
         <v>279</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="278">
@@ -3685,7 +3865,7 @@
         <v>280</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="279">
@@ -3693,7 +3873,7 @@
         <v>281</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="280">
@@ -3701,7 +3881,7 @@
         <v>282</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="281">
@@ -3709,7 +3889,7 @@
         <v>283</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="282">
@@ -3717,7 +3897,7 @@
         <v>284</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="283">
@@ -3725,7 +3905,7 @@
         <v>285</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="284">
@@ -3733,7 +3913,7 @@
         <v>286</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="285">
@@ -3741,7 +3921,7 @@
         <v>287</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="286">
@@ -3749,7 +3929,7 @@
         <v>288</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="287">
@@ -3757,7 +3937,7 @@
         <v>289</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="288">
@@ -3765,7 +3945,7 @@
         <v>290</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="289">
@@ -3773,7 +3953,7 @@
         <v>291</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="290">
@@ -3781,7 +3961,7 @@
         <v>292</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="291">
@@ -3789,7 +3969,7 @@
         <v>293</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="292">
@@ -3797,7 +3977,7 @@
         <v>294</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="293">
@@ -3805,7 +3985,7 @@
         <v>295</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="294">
@@ -3813,7 +3993,7 @@
         <v>296</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="295">
@@ -3821,7 +4001,7 @@
         <v>297</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="296">
@@ -3829,7 +4009,7 @@
         <v>298</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="297">
@@ -3837,7 +4017,7 @@
         <v>299</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="298">
@@ -3845,7 +4025,7 @@
         <v>300</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="299">
@@ -3853,7 +4033,7 @@
         <v>301</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="300">
@@ -3861,7 +4041,7 @@
         <v>302</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="301">
@@ -3869,7 +4049,7 @@
         <v>303</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="302">
@@ -3877,7 +4057,7 @@
         <v>304</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="303">
@@ -3885,7 +4065,7 @@
         <v>305</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="304">
@@ -3893,7 +4073,7 @@
         <v>306</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="305">
@@ -3901,7 +4081,7 @@
         <v>307</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="306">
@@ -3909,7 +4089,7 @@
         <v>308</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="307">
@@ -3917,7 +4097,7 @@
         <v>309</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="308">
@@ -3925,7 +4105,7 @@
         <v>310</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="309">
@@ -3933,7 +4113,7 @@
         <v>311</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="310">
@@ -3941,7 +4121,7 @@
         <v>312</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="311">
@@ -3949,7 +4129,7 @@
         <v>313</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="312">
@@ -3957,7 +4137,7 @@
         <v>314</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="313">
@@ -3965,7 +4145,7 @@
         <v>315</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="314">
@@ -3973,7 +4153,7 @@
         <v>316</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="315">
@@ -3981,7 +4161,7 @@
         <v>317</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="316">
@@ -3989,7 +4169,7 @@
         <v>318</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="317">
@@ -3997,7 +4177,7 @@
         <v>319</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="318">
@@ -4005,7 +4185,7 @@
         <v>320</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="319">
@@ -4013,7 +4193,7 @@
         <v>321</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="320">
@@ -4021,7 +4201,7 @@
         <v>322</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="321">
@@ -4029,7 +4209,7 @@
         <v>323</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="322">
@@ -4037,7 +4217,7 @@
         <v>324</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="323">
@@ -4045,7 +4225,7 @@
         <v>325</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="324">
@@ -4053,7 +4233,7 @@
         <v>326</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="325">
@@ -4061,7 +4241,7 @@
         <v>327</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="326">
@@ -4069,7 +4249,7 @@
         <v>328</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="327">
@@ -4077,7 +4257,7 @@
         <v>329</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="328">
@@ -4085,7 +4265,7 @@
         <v>330</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="329">
@@ -4093,7 +4273,7 @@
         <v>331</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="330">
@@ -4101,7 +4281,7 @@
         <v>332</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="331">
@@ -4109,7 +4289,7 @@
         <v>333</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="332">
@@ -4117,7 +4297,7 @@
         <v>334</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="333">
@@ -4125,7 +4305,7 @@
         <v>335</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="334">
@@ -4133,7 +4313,7 @@
         <v>336</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="335">
@@ -4141,7 +4321,7 @@
         <v>337</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="336">
@@ -4149,7 +4329,7 @@
         <v>338</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="337">
@@ -4157,7 +4337,7 @@
         <v>339</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="338">
@@ -4165,7 +4345,7 @@
         <v>340</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="339">
@@ -4173,7 +4353,7 @@
         <v>341</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="340">
@@ -4181,7 +4361,7 @@
         <v>342</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="341">
@@ -4189,7 +4369,7 @@
         <v>343</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="342">
@@ -4197,7 +4377,7 @@
         <v>344</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="343">
@@ -4205,7 +4385,7 @@
         <v>345</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="344">
@@ -4213,7 +4393,7 @@
         <v>346</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="345">
@@ -4221,7 +4401,7 @@
         <v>347</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="346">
@@ -4229,7 +4409,7 @@
         <v>348</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="347">
@@ -4237,7 +4417,7 @@
         <v>349</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="348">
@@ -4245,7 +4425,7 @@
         <v>350</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="349">
@@ -4253,7 +4433,7 @@
         <v>351</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="350">
@@ -4261,7 +4441,7 @@
         <v>352</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="351">
@@ -4269,7 +4449,7 @@
         <v>353</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="352">
@@ -4277,7 +4457,7 @@
         <v>354</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="353">
@@ -4285,7 +4465,7 @@
         <v>355</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="354">
@@ -4293,7 +4473,7 @@
         <v>356</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="355">
@@ -4301,7 +4481,7 @@
         <v>357</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="356">
@@ -4309,3575 +4489,4343 @@
         <v>358</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>2</v>
+        <v>359</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>4</v>
+        <v>360</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>5</v>
+        <v>361</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>6</v>
+        <v>362</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>7</v>
+        <v>363</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
-        <v>8</v>
+        <v>364</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>9</v>
+        <v>365</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>10</v>
+        <v>366</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>11</v>
+        <v>367</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>12</v>
+        <v>368</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
-        <v>13</v>
+        <v>369</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>14</v>
+        <v>370</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>15</v>
+        <v>371</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>16</v>
+        <v>372</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
-        <v>17</v>
+        <v>373</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>18</v>
+        <v>374</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
-        <v>19</v>
+        <v>375</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
-        <v>20</v>
+        <v>376</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
-        <v>21</v>
+        <v>377</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
-        <v>22</v>
+        <v>378</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
-        <v>23</v>
+        <v>379</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>24</v>
+        <v>380</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
-        <v>25</v>
+        <v>381</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
-        <v>26</v>
+        <v>382</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
-        <v>27</v>
+        <v>383</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
-        <v>28</v>
+        <v>384</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
-        <v>29</v>
+        <v>385</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
-        <v>30</v>
+        <v>386</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="s">
-        <v>31</v>
+        <v>387</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
-        <v>32</v>
+        <v>388</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
-        <v>33</v>
+        <v>389</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
-        <v>34</v>
+        <v>390</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
-        <v>35</v>
+        <v>391</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
-        <v>36</v>
+        <v>392</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
-        <v>37</v>
+        <v>393</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
-        <v>38</v>
+        <v>394</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
-        <v>39</v>
+        <v>395</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
-        <v>40</v>
+        <v>396</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
-        <v>41</v>
+        <v>397</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
-        <v>42</v>
+        <v>398</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
-        <v>43</v>
+        <v>399</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
-        <v>44</v>
+        <v>400</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>45</v>
+        <v>401</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
-        <v>46</v>
+        <v>402</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
-        <v>47</v>
+        <v>403</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
-        <v>48</v>
+        <v>404</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
-        <v>49</v>
+        <v>405</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
-        <v>50</v>
+        <v>406</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
-        <v>51</v>
+        <v>407</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
-        <v>52</v>
+        <v>408</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
-        <v>53</v>
+        <v>409</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
-        <v>54</v>
+        <v>410</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
-        <v>55</v>
+        <v>411</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
-        <v>56</v>
+        <v>412</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
-        <v>57</v>
+        <v>413</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
-        <v>58</v>
+        <v>414</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
-        <v>59</v>
+        <v>415</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
-        <v>60</v>
+        <v>416</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
-        <v>61</v>
+        <v>417</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
-        <v>62</v>
+        <v>418</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="s">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="s">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="s">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="s">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="s">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="s">
-        <v>156</v>
+        <v>95</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="s">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="s">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="s">
-        <v>162</v>
+        <v>101</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="s">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="s">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="s">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="s">
-        <v>172</v>
+        <v>111</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="s">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="s">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="s">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="s">
-        <v>177</v>
+        <v>116</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="s">
-        <v>178</v>
+        <v>117</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="s">
-        <v>179</v>
+        <v>118</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="s">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="s">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="s">
-        <v>186</v>
+        <v>125</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="s">
-        <v>188</v>
+        <v>127</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="s">
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="2" t="s">
-        <v>191</v>
+        <v>130</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="s">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="s">
-        <v>193</v>
+        <v>132</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="s">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="s">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="s">
-        <v>196</v>
+        <v>135</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="s">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="s">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="s">
-        <v>201</v>
+        <v>140</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="s">
-        <v>202</v>
+        <v>141</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="s">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="s">
-        <v>204</v>
+        <v>143</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="s">
-        <v>206</v>
+        <v>145</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="s">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="s">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="s">
-        <v>210</v>
+        <v>149</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="s">
-        <v>211</v>
+        <v>150</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="s">
-        <v>212</v>
+        <v>151</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="2" t="s">
-        <v>213</v>
+        <v>152</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="2" t="s">
-        <v>214</v>
+        <v>153</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="s">
-        <v>215</v>
+        <v>154</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="s">
-        <v>216</v>
+        <v>155</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="s">
-        <v>217</v>
+        <v>156</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="s">
-        <v>218</v>
+        <v>157</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="s">
-        <v>220</v>
+        <v>159</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="s">
-        <v>221</v>
+        <v>160</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="2" t="s">
-        <v>222</v>
+        <v>161</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="s">
-        <v>223</v>
+        <v>162</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="2" t="s">
-        <v>224</v>
+        <v>163</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="2" t="s">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="s">
-        <v>226</v>
+        <v>165</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="s">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="2" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="2" t="s">
-        <v>229</v>
+        <v>168</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="2" t="s">
-        <v>230</v>
+        <v>169</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="2" t="s">
-        <v>231</v>
+        <v>170</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="2" t="s">
-        <v>232</v>
+        <v>172</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="2" t="s">
-        <v>233</v>
+        <v>173</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="2" t="s">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="2" t="s">
-        <v>235</v>
+        <v>175</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="2" t="s">
-        <v>236</v>
+        <v>176</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="2" t="s">
-        <v>237</v>
+        <v>177</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="2" t="s">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="2" t="s">
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="2" t="s">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="2" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="2" t="s">
-        <v>242</v>
+        <v>182</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="2" t="s">
-        <v>243</v>
+        <v>183</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="2" t="s">
-        <v>244</v>
+        <v>184</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="2" t="s">
-        <v>245</v>
+        <v>185</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="2" t="s">
-        <v>246</v>
+        <v>186</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="2" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="2" t="s">
-        <v>248</v>
+        <v>188</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="2" t="s">
-        <v>249</v>
+        <v>189</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="2" t="s">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="2" t="s">
-        <v>251</v>
+        <v>191</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="2" t="s">
-        <v>252</v>
+        <v>192</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="2" t="s">
-        <v>253</v>
+        <v>193</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="2" t="s">
-        <v>254</v>
+        <v>194</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="2" t="s">
-        <v>255</v>
+        <v>195</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="2" t="s">
-        <v>256</v>
+        <v>196</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="2" t="s">
-        <v>257</v>
+        <v>197</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="2" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="2" t="s">
-        <v>259</v>
+        <v>199</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="2" t="s">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="2" t="s">
-        <v>261</v>
+        <v>201</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="2" t="s">
-        <v>262</v>
+        <v>202</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="2" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="2" t="s">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="2" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="2" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="2" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="2" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="2" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="2" t="s">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="2" t="s">
-        <v>271</v>
+        <v>211</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="2" t="s">
-        <v>272</v>
+        <v>212</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="2" t="s">
-        <v>273</v>
+        <v>213</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="2" t="s">
-        <v>274</v>
+        <v>214</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="2" t="s">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="2" t="s">
-        <v>276</v>
+        <v>216</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="2" t="s">
-        <v>277</v>
+        <v>217</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="2" t="s">
-        <v>278</v>
+        <v>218</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="2" t="s">
-        <v>279</v>
+        <v>219</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="2" t="s">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="2" t="s">
-        <v>281</v>
+        <v>221</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="2" t="s">
-        <v>282</v>
+        <v>222</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="2" t="s">
-        <v>283</v>
+        <v>223</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="2" t="s">
-        <v>284</v>
+        <v>224</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="2" t="s">
-        <v>285</v>
+        <v>225</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="2" t="s">
-        <v>286</v>
+        <v>226</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="2" t="s">
-        <v>287</v>
+        <v>227</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="2" t="s">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="2" t="s">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="2" t="s">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="2" t="s">
-        <v>291</v>
+        <v>231</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="2" t="s">
-        <v>292</v>
+        <v>232</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="2" t="s">
-        <v>293</v>
+        <v>233</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="2" t="s">
-        <v>294</v>
+        <v>234</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="2" t="s">
-        <v>295</v>
+        <v>235</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="2" t="s">
-        <v>296</v>
+        <v>236</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="2" t="s">
-        <v>297</v>
+        <v>237</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="2" t="s">
-        <v>298</v>
+        <v>238</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="2" t="s">
-        <v>299</v>
+        <v>239</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="2" t="s">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="2" t="s">
-        <v>301</v>
+        <v>241</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="2" t="s">
-        <v>302</v>
+        <v>242</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="2" t="s">
-        <v>303</v>
+        <v>243</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="2" t="s">
-        <v>304</v>
+        <v>244</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="2" t="s">
-        <v>305</v>
+        <v>245</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="2" t="s">
-        <v>306</v>
+        <v>246</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="2" t="s">
-        <v>307</v>
+        <v>247</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="2" t="s">
-        <v>308</v>
+        <v>248</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="2" t="s">
-        <v>309</v>
+        <v>249</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="2" t="s">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="2" t="s">
-        <v>311</v>
+        <v>251</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="2" t="s">
-        <v>312</v>
+        <v>252</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="2" t="s">
-        <v>313</v>
+        <v>253</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="2" t="s">
-        <v>314</v>
+        <v>254</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="2" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="2" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="2" t="s">
-        <v>317</v>
+        <v>257</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="2" t="s">
-        <v>318</v>
+        <v>258</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="2" t="s">
-        <v>319</v>
+        <v>259</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="2" t="s">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="2" t="s">
-        <v>321</v>
+        <v>261</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="2" t="s">
-        <v>322</v>
+        <v>262</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="2" t="s">
-        <v>323</v>
+        <v>263</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="2" t="s">
-        <v>324</v>
+        <v>264</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="2" t="s">
-        <v>325</v>
+        <v>265</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="2" t="s">
-        <v>326</v>
+        <v>266</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="2" t="s">
-        <v>327</v>
+        <v>267</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="2" t="s">
-        <v>328</v>
+        <v>268</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="2" t="s">
-        <v>329</v>
+        <v>269</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="2" t="s">
-        <v>330</v>
+        <v>270</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="2" t="s">
-        <v>331</v>
+        <v>271</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="2" t="s">
-        <v>332</v>
+        <v>272</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="2" t="s">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="2" t="s">
-        <v>334</v>
+        <v>274</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="2" t="s">
-        <v>335</v>
+        <v>275</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="2" t="s">
-        <v>336</v>
+        <v>276</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="2" t="s">
-        <v>337</v>
+        <v>277</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="2" t="s">
-        <v>338</v>
+        <v>278</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="2" t="s">
-        <v>339</v>
+        <v>279</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="2" t="s">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="2" t="s">
-        <v>341</v>
+        <v>281</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="2" t="s">
-        <v>342</v>
+        <v>282</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="2" t="s">
-        <v>343</v>
+        <v>283</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="2" t="s">
-        <v>344</v>
+        <v>284</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="2" t="s">
-        <v>345</v>
+        <v>285</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="2" t="s">
-        <v>346</v>
+        <v>286</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="2" t="s">
-        <v>347</v>
+        <v>287</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="2" t="s">
-        <v>348</v>
+        <v>288</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="2" t="s">
-        <v>349</v>
+        <v>289</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="2" t="s">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="2" t="s">
-        <v>351</v>
+        <v>291</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="2" t="s">
-        <v>352</v>
+        <v>292</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="2" t="s">
-        <v>353</v>
+        <v>293</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="2" t="s">
-        <v>354</v>
+        <v>294</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="2" t="s">
-        <v>355</v>
+        <v>295</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="2" t="s">
-        <v>356</v>
+        <v>296</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="2" t="s">
-        <v>357</v>
+        <v>297</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="2" t="s">
-        <v>358</v>
+        <v>298</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="2" t="s">
-        <v>103</v>
+        <v>299</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="2" t="s">
-        <v>107</v>
+        <v>300</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="2" t="s">
-        <v>108</v>
+        <v>301</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="2" t="s">
-        <v>119</v>
+        <v>302</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="2" t="s">
-        <v>120</v>
+        <v>303</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="2" t="s">
-        <v>125</v>
+        <v>304</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="2" t="s">
-        <v>127</v>
+        <v>305</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="2" t="s">
-        <v>131</v>
+        <v>306</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="2" t="s">
-        <v>132</v>
+        <v>307</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" s="2" t="s">
-        <v>147</v>
+        <v>308</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" s="2" t="s">
-        <v>149</v>
+        <v>309</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="2" t="s">
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="2" t="s">
-        <v>156</v>
+        <v>311</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="2" t="s">
-        <v>13</v>
+        <v>312</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="2" t="s">
-        <v>15</v>
+        <v>313</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="2" t="s">
-        <v>16</v>
+        <v>314</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="2" t="s">
-        <v>162</v>
+        <v>315</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="2" t="s">
-        <v>163</v>
+        <v>316</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" s="2" t="s">
-        <v>164</v>
+        <v>317</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="2" t="s">
-        <v>18</v>
+        <v>318</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="2" t="s">
-        <v>165</v>
+        <v>319</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="2" t="s">
-        <v>169</v>
+        <v>320</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="2" t="s">
-        <v>20</v>
+        <v>321</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" s="2" t="s">
-        <v>171</v>
+        <v>322</v>
       </c>
       <c r="B735" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="2" t="s">
-        <v>175</v>
+        <v>323</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="2" t="s">
-        <v>24</v>
+        <v>324</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" s="2" t="s">
-        <v>25</v>
+        <v>325</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" s="2" t="s">
-        <v>181</v>
+        <v>326</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" s="2" t="s">
-        <v>29</v>
+        <v>327</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="2" t="s">
-        <v>184</v>
+        <v>328</v>
       </c>
       <c r="B741" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="2" t="s">
-        <v>187</v>
+        <v>329</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="2" t="s">
-        <v>189</v>
+        <v>330</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="2" t="s">
-        <v>191</v>
+        <v>331</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="2" t="s">
-        <v>201</v>
+        <v>332</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" s="2" t="s">
-        <v>202</v>
+        <v>333</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" s="2" t="s">
-        <v>204</v>
+        <v>334</v>
       </c>
       <c r="B747" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="2" t="s">
-        <v>205</v>
+        <v>335</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="2" t="s">
-        <v>206</v>
+        <v>336</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" s="2" t="s">
-        <v>209</v>
+        <v>337</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="2" t="s">
-        <v>36</v>
+        <v>338</v>
       </c>
       <c r="B751" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="2" t="s">
-        <v>210</v>
+        <v>339</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="2" t="s">
-        <v>212</v>
+        <v>340</v>
       </c>
       <c r="B753" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="2" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="B754" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="2" t="s">
-        <v>219</v>
+        <v>342</v>
       </c>
       <c r="B755" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="2" t="s">
-        <v>221</v>
+        <v>343</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="2" t="s">
-        <v>223</v>
+        <v>344</v>
       </c>
       <c r="B757" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="2" t="s">
-        <v>224</v>
+        <v>345</v>
       </c>
       <c r="B758" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="2" t="s">
-        <v>45</v>
+        <v>346</v>
       </c>
       <c r="B759" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="2" t="s">
-        <v>229</v>
+        <v>347</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="2" t="s">
-        <v>233</v>
+        <v>348</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="2" t="s">
-        <v>49</v>
+        <v>349</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" s="2" t="s">
-        <v>53</v>
+        <v>350</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="2" t="s">
-        <v>242</v>
+        <v>351</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" s="2" t="s">
-        <v>246</v>
+        <v>352</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="2" t="s">
-        <v>248</v>
+        <v>353</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" s="2" t="s">
-        <v>251</v>
+        <v>354</v>
       </c>
       <c r="B767" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="2" t="s">
-        <v>58</v>
+        <v>355</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" s="2" t="s">
-        <v>252</v>
+        <v>356</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" s="2" t="s">
-        <v>59</v>
+        <v>357</v>
       </c>
       <c r="B770" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" s="2" t="s">
-        <v>253</v>
+        <v>358</v>
       </c>
       <c r="B771" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" s="2" t="s">
-        <v>254</v>
+        <v>359</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="2" t="s">
-        <v>255</v>
+        <v>360</v>
       </c>
       <c r="B773" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" s="2" t="s">
-        <v>61</v>
+        <v>361</v>
       </c>
       <c r="B774" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" s="2" t="s">
-        <v>258</v>
+        <v>362</v>
       </c>
       <c r="B775" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" s="2" t="s">
-        <v>63</v>
+        <v>363</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" s="2" t="s">
-        <v>64</v>
+        <v>364</v>
       </c>
       <c r="B777" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" s="2" t="s">
-        <v>264</v>
+        <v>365</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" s="2" t="s">
-        <v>266</v>
+        <v>366</v>
       </c>
       <c r="B779" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" s="2" t="s">
-        <v>278</v>
+        <v>367</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" s="2" t="s">
-        <v>279</v>
+        <v>368</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" s="2" t="s">
-        <v>72</v>
+        <v>369</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" s="2" t="s">
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="B783" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" s="2" t="s">
-        <v>281</v>
+        <v>371</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" s="2" t="s">
-        <v>283</v>
+        <v>372</v>
       </c>
       <c r="B785" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" s="2" t="s">
-        <v>294</v>
+        <v>373</v>
       </c>
       <c r="B786" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" s="2" t="s">
-        <v>298</v>
+        <v>374</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" s="2" t="s">
-        <v>301</v>
+        <v>375</v>
       </c>
       <c r="B788" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" s="2" t="s">
-        <v>303</v>
+        <v>376</v>
       </c>
       <c r="B789" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" s="2" t="s">
-        <v>308</v>
+        <v>377</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" s="2" t="s">
-        <v>81</v>
+        <v>378</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" s="2" t="s">
-        <v>310</v>
+        <v>379</v>
       </c>
       <c r="B792" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" s="2" t="s">
-        <v>84</v>
+        <v>380</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" s="2" t="s">
-        <v>318</v>
+        <v>381</v>
       </c>
       <c r="B794" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" s="2" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" s="2" t="s">
-        <v>334</v>
+        <v>383</v>
       </c>
       <c r="B796" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" s="2" t="s">
-        <v>339</v>
+        <v>384</v>
       </c>
       <c r="B797" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" s="2" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="B798" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" s="2" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="B799" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" s="2" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="B800" s="2" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B801" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B802" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B803" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B804" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B805" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B806" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B807" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B808" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B809" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B810" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B811" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B812" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B813" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B814" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B815" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B816" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B817" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B818" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B819" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B820" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B821" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B822" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B823" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B824" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B825" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B826" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B827" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B828" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B829" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B830" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B831" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B832" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B833" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B834" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B835" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B836" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B837" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B838" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B839" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B840" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B841" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B842" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B843" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B844" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B845" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B846" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B847" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B848" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B849" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B850" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B851" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B852" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B853" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B854" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B855" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B856" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B857" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B858" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B859" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B860" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B861" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B862" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B863" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B864" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B865" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B866" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B867" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B868" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B869" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B870" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B871" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B872" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B873" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B874" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B875" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B876" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B877" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B878" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B879" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B880" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B881" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B882" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B883" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B884" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B885" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B801" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="802">
-      <c r="A802" s="3" t="s">
+      <c r="B886" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B802" s="3" t="s">
-        <v>360</v>
+      <c r="B887" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B888" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B889" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B890" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B891" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B892" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B893" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B894" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B895" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B896" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B897" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B898" s="3" t="s">
+        <v>420</v>
       </c>
     </row>
   </sheetData>
